--- a/CNN_confs.xlsx
+++ b/CNN_confs.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="fused" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
